--- a/src/Utility/DataFile.xlsx
+++ b/src/Utility/DataFile.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashchauhan\IdeaProjects\TestnopCommerce\src\Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2ADC52-88A5-4A61-B4DD-758BFCDC2820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE0514-C8A1-45DA-A291-25CC07EF5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8060D9F1-7CE6-4673-98F7-ABA181ACEB67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8060D9F1-7CE6-4673-98F7-ABA181ACEB67}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginCredentials" sheetId="3" r:id="rId2"/>
-    <sheet name="AddressData" sheetId="4" r:id="rId3"/>
+    <sheet name="LoginTestData" sheetId="3" r:id="rId2"/>
+    <sheet name="ProductReviewData" sheetId="5" r:id="rId3"/>
+    <sheet name="AddressData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t xml:space="preserve">Gender </t>
   </si>
@@ -154,9 +155,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>yash10@mailinator.com</t>
-  </si>
-  <si>
     <t>First name</t>
   </si>
   <si>
@@ -218,6 +216,60 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Review Title</t>
+  </si>
+  <si>
+    <t>Review Text</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Product Review 1</t>
+  </si>
+  <si>
+    <t>Product Review 2</t>
+  </si>
+  <si>
+    <t>Product Review 3</t>
+  </si>
+  <si>
+    <t>Product Review 4</t>
+  </si>
+  <si>
+    <t>Product Review 5</t>
+  </si>
+  <si>
+    <t>Testing Review 1</t>
+  </si>
+  <si>
+    <t>Testing Review 2</t>
+  </si>
+  <si>
+    <t>Testing Review 3</t>
+  </si>
+  <si>
+    <t>Testing Review 4</t>
+  </si>
+  <si>
+    <t>Testing Review 5</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>"4"</t>
+  </si>
+  <si>
+    <t>"5"</t>
   </si>
 </sst>
 </file>
@@ -362,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +459,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -744,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E34613-BA60-46F5-8752-3D7AFC01906E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +865,7 @@
         <v>2000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -968,7 +1023,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,8 +1044,8 @@
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7">
-        <v>123456</v>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,6 +1075,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C15C62-766F-49D9-9EE6-357F2A923E1A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27231B89-2AED-4BCA-BDD2-72A0ECCFB215}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -1043,10 +1186,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
@@ -1055,22 +1198,22 @@
         <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1084,19 +1227,19 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <v>160022</v>
@@ -1116,19 +1259,19 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3">
         <v>160022</v>
@@ -1148,19 +1291,19 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4">
         <v>160022</v>
@@ -1174,25 +1317,25 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <v>160022</v>
@@ -1203,28 +1346,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="17">
         <v>160022</v>
@@ -1246,6 +1389,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d12d5796-3aaa-44db-ae6a-364f1b6c52d0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BC05CF65A2066B478A66F2F93BA31721" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="151e0ef791335968a46980ea326ea9e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d12d5796-3aaa-44db-ae6a-364f1b6c52d0" xmlns:ns4="585fd8e5-fed6-445a-97af-6145dc9e7183" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d2ee80288a3de9aaf62e39eba26fcf8" ns3:_="" ns4:_="">
     <xsd:import namespace="d12d5796-3aaa-44db-ae6a-364f1b6c52d0"/>
@@ -1466,14 +1617,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d12d5796-3aaa-44db-ae6a-364f1b6c52d0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1484,6 +1627,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB2AFF1-FAED-4341-AE06-CB2153AAF00D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d12d5796-3aaa-44db-ae6a-364f1b6c52d0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="585fd8e5-fed6-445a-97af-6145dc9e7183"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EC5D9D6-CDF6-4442-8BE3-20D2D978B3EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1502,23 +1662,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB2AFF1-FAED-4341-AE06-CB2153AAF00D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d12d5796-3aaa-44db-ae6a-364f1b6c52d0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="585fd8e5-fed6-445a-97af-6145dc9e7183"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47A5545E-A7BD-48D7-8FFD-72D5F119E3A5}">
   <ds:schemaRefs>
